--- a/testCase/testcase.xlsx
+++ b/testCase/testcase.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testCase/testcase.xlsx
+++ b/testCase/testcase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REQUESTH" sheetId="1" r:id="rId1"/>
     <sheet name="REQUESTD" sheetId="4" r:id="rId2"/>
+    <sheet name="RESULT" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,30 @@
   </si>
   <si>
     <t>TC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT EXECUTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -871,4 +899,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>